--- a/UFC Model Outcomes.xlsx
+++ b/UFC Model Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dariu\Desktop\Kaggle\UFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5CC29A9-6F10-480E-862A-7E3E99DF3E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD1BA4C-79DE-4364-91C0-D12A87F55F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12912" windowHeight="12036" xr2:uid="{487691FF-D7B7-418F-AEE7-B6DF39367B02}"/>
+    <workbookView xWindow="72" yWindow="84" windowWidth="11664" windowHeight="12036" xr2:uid="{487691FF-D7B7-418F-AEE7-B6DF39367B02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>UFC Model</t>
   </si>
@@ -105,14 +105,133 @@
   </si>
   <si>
     <t>Winnings/Losses</t>
+  </si>
+  <si>
+    <t>tyron</t>
+  </si>
+  <si>
+    <t>donald</t>
+  </si>
+  <si>
+    <t>johnny</t>
+  </si>
+  <si>
+    <t>colby</t>
+  </si>
+  <si>
+    <t>gerald</t>
+  </si>
+  <si>
+    <t>khamzat</t>
+  </si>
+  <si>
+    <t>mackenzie</t>
+  </si>
+  <si>
+    <t>randa</t>
+  </si>
+  <si>
+    <t>mayra</t>
+  </si>
+  <si>
+    <t>irwin</t>
+  </si>
+  <si>
+    <t>andrea</t>
+  </si>
+  <si>
+    <t>eduard</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>brandon</t>
+  </si>
+  <si>
+    <t>ketlen</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>diego</t>
+  </si>
+  <si>
+    <t>shane</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>Stake</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>jake</t>
+  </si>
+  <si>
+    <t>ludovit</t>
+  </si>
+  <si>
+    <t>Odds</t>
+  </si>
+  <si>
+    <t>odds</t>
+  </si>
+  <si>
+    <t>stake</t>
+  </si>
+  <si>
+    <t>(Imaginary money)</t>
+  </si>
+  <si>
+    <t>DID NOT BET</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Dequan</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>casey</t>
+  </si>
+  <si>
+    <t>Odds (vegas)</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>dusko</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,7 +261,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,23 +576,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC89F3C-96A8-4291-92B7-30E50CD87E02}">
-  <dimension ref="B4:E22"/>
+  <dimension ref="B4:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="25.21875" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="U4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -483,167 +607,547 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>10.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>3.375</v>
+      </c>
+      <c r="R7">
+        <v>22.75</v>
+      </c>
+      <c r="T7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7" s="1">
+        <v>205</v>
+      </c>
+      <c r="X7">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>7.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>1.58</v>
+      </c>
+      <c r="R8">
+        <v>2.9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>245</v>
+      </c>
+      <c r="X8">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>3.75</v>
+      </c>
+      <c r="R9">
+        <v>-5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>325</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>19.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>-10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>6.8</v>
+      </c>
+      <c r="R10">
+        <v>-5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>-150</v>
+      </c>
+      <c r="X10">
+        <f>-1000/W10</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>-10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>2.08</v>
+      </c>
+      <c r="R11">
+        <v>-5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>-335</v>
+      </c>
+      <c r="X11">
+        <f>-1000/W11</f>
+        <v>2.9850746268656718</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>23.9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>2.42</v>
+      </c>
+      <c r="R12">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>-6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>3.05</v>
+      </c>
+      <c r="R13">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>-10</v>
+      </c>
+      <c r="W18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19">
+        <f>SUMIF(R7:R17, "&gt;0")</f>
+        <v>43</v>
+      </c>
+      <c r="W19" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <f>SUMIF(X7:X17, "&gt;0")</f>
+        <v>30.151741293532339</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
         <f>SUMIF(E7:E18, "&gt;0")</f>
-        <v>893</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+        <v>89.299999999999983</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <f>SUMIF(L7:L18, "&gt;0")</f>
+        <v>13.6</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20">
+        <f>-SUMIF(R7:R17,"&lt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="W20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20">
+        <f>-SUMIF(X7:X17,"&lt;0")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
         <f>-SUMIF(E7:E18,"&lt;0")</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21">
+        <f>-SUMIF(L7:L18,"&lt;0")</f>
+        <v>36</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21">
+        <f>R19-R20</f>
+        <v>28</v>
+      </c>
+      <c r="W21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21">
+        <f>X19-X20</f>
+        <v>20.151741293532339</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
         <f>E20-E21</f>
-        <v>393</v>
+        <v>39.299999999999983</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22">
+        <f>L20-L21</f>
+        <v>-22.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>